--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -70,9 +70,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб.</t>
-  </si>
-  <si>
     <t>Авад</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Куропаткин 16</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="5"/>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -729,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -773,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
@@ -1037,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
@@ -1081,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
@@ -1125,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
@@ -1257,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
@@ -1301,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
@@ -1345,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
@@ -1477,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1521,7 +1521,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1565,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1609,7 +1609,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1653,7 +1653,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
@@ -1697,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1741,7 +1741,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1785,7 +1785,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -1829,7 +1829,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -1873,7 +1873,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -1917,7 +1917,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
@@ -1961,7 +1961,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
@@ -2005,7 +2005,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
@@ -2049,7 +2049,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75">
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(J3, J38)</f>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -166,7 +166,7 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -448,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -457,7 +457,7 @@
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -448,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Итого, руб.</t>
   </si>
   <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
     <t>Хакимов</t>
   </si>
   <si>
@@ -91,12 +94,6 @@
     <t>Мирзагитова</t>
   </si>
   <si>
-    <t>Мохамед 1</t>
-  </si>
-  <si>
-    <t>Мохамед 2</t>
-  </si>
-  <si>
     <t>Нуруллина</t>
   </si>
   <si>
@@ -166,7 +163,7 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Максимальная сумма, руб.</t>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -448,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -457,12 +454,12 @@
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
   </cols>
@@ -512,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -553,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
@@ -597,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="5"/>
@@ -641,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -685,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -729,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -773,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -817,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -861,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
@@ -905,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -949,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
@@ -993,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
@@ -1037,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
@@ -1081,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
@@ -1125,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
@@ -1169,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
@@ -1213,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
@@ -1257,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
@@ -1301,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
@@ -1345,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
@@ -1389,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
@@ -1433,7 +1430,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1477,7 +1474,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1521,7 +1518,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1565,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1609,7 +1606,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1653,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
@@ -1697,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1741,7 +1738,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1785,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -1829,7 +1826,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -1873,7 +1870,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -1917,7 +1914,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
@@ -1961,14 +1958,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="9">0.55*89</f>
+        <f t="shared" ref="D36:D39" si="9">0.55*89</f>
         <v>48.95</v>
       </c>
       <c r="E36" s="2">
@@ -2005,7 +2002,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
@@ -2049,7 +2046,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2087,12 +2084,13 @@
         <v>2839.875</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="15.75">
+      <c r="D39" s="2"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="15.75">
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
@@ -2101,7 +2099,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2110,7 +2108,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75">
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2119,7 +2117,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75">
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(J3, J38)</f>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -454,7 +454,7 @@
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
@@ -466,6 +466,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="2">
+        <f>89</f>
         <v>89</v>
       </c>
     </row>
@@ -506,6 +507,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="2">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -515,7 +517,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>1.1*89</f>
+        <f>A1*1.1</f>
         <v>97.9</v>
       </c>
       <c r="E3" s="2">
@@ -529,35 +531,35 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H38" si="1">IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>6853</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+        <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="6">1.1*89</f>
+        <f>D3</f>
         <v>97.9</v>
       </c>
       <c r="E4" s="2">
@@ -565,43 +567,42 @@
         <v>6804.05</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f t="shared" ref="F4:F38" si="5">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H38" si="6">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I38" si="8">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6804.05</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D5:D34" si="7">D4</f>
         <v>97.9</v>
       </c>
       <c r="E5" s="2">
@@ -609,43 +610,42 @@
         <v>6755.1</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6755.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E6" s="2">
@@ -653,43 +653,42 @@
         <v>6706.1500000000005</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6706.1500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E7" s="2">
@@ -697,43 +696,42 @@
         <v>6657.2000000000007</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6657.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E8" s="2">
@@ -741,43 +739,42 @@
         <v>6608.25</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6608.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E9" s="2">
@@ -785,43 +782,42 @@
         <v>6559.3</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6559.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E10" s="2">
@@ -829,43 +825,42 @@
         <v>6510.35</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6510.35</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E11" s="2">
@@ -873,43 +868,42 @@
         <v>6461.4000000000005</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6461.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E12" s="2">
@@ -917,43 +911,42 @@
         <v>6412.4500000000007</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6422.4500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E13" s="2">
@@ -961,43 +954,42 @@
         <v>6363.5</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6383.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E14" s="2">
@@ -1005,43 +997,42 @@
         <v>6314.55</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6344.55</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E15" s="2">
@@ -1049,43 +1040,42 @@
         <v>6265.6</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6305.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E16" s="2">
@@ -1093,43 +1083,42 @@
         <v>6216.6500000000005</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6266.6500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E17" s="2">
@@ -1137,43 +1126,42 @@
         <v>6167.7000000000007</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6227.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E18" s="2">
@@ -1181,43 +1169,42 @@
         <v>6118.75</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6188.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E19" s="2">
@@ -1225,43 +1212,42 @@
         <v>6069.8</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6149.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E20" s="2">
@@ -1269,43 +1255,42 @@
         <v>6020.85</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6110.85</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E21" s="2">
@@ -1313,43 +1298,42 @@
         <v>5971.9000000000005</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6071.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E22" s="2">
@@ -1357,43 +1341,42 @@
         <v>5922.9500000000007</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6032.9500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E23" s="2">
@@ -1401,43 +1384,42 @@
         <v>5874</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5994</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E24" s="2">
@@ -1445,43 +1427,42 @@
         <v>5825.05</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5955.05</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E25" s="2">
@@ -1489,43 +1470,42 @@
         <v>5776.1</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5916.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E26" s="2">
@@ -1533,43 +1513,42 @@
         <v>5727.1500000000005</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5877.1500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E27" s="2">
@@ -1577,43 +1556,42 @@
         <v>5678.2000000000007</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5838.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E28" s="2">
@@ -1621,43 +1599,42 @@
         <v>5629.25</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5799.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E29" s="2">
@@ -1665,43 +1642,42 @@
         <v>5580.3</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5760.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E30" s="2">
@@ -1709,43 +1685,42 @@
         <v>5531.35</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5721.35</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E31" s="2">
@@ -1753,43 +1728,42 @@
         <v>5482.4000000000005</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5682.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E32" s="2">
@@ -1797,43 +1771,42 @@
         <v>5433.4500000000007</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5643.4500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E33" s="2">
@@ -1841,43 +1814,42 @@
         <v>5384.5</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5604.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.9</v>
       </c>
       <c r="E34" s="2">
@@ -1885,43 +1857,42 @@
         <v>5335.55</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5565.55</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>0.55*89</f>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E35" s="2">
@@ -1929,43 +1900,42 @@
         <v>2643.3</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2883.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D39" si="9">0.55*89</f>
+        <f t="shared" ref="D36:D38" si="8">D4/2</f>
         <v>48.95</v>
       </c>
       <c r="E36" s="2">
@@ -1973,43 +1943,42 @@
         <v>2618.8250000000003</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2868.8250000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>48.95</v>
       </c>
       <c r="E37" s="2">
@@ -2017,43 +1986,42 @@
         <v>2594.3500000000004</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2854.3500000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>48.95</v>
       </c>
       <c r="E38" s="2">
@@ -2061,26 +2029,25 @@
         <v>2569.875</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2839.875</v>
       </c>
     </row>
@@ -2093,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="2">
-        <f>INT(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>209223</v>
       </c>
     </row>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB13BB0A-6197-464A-B324-7C0E7C199D21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EED4B-F54C-4914-A125-BE0BD4910C95}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,15 +209,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF282C34"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,7 +242,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -592,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -755,7 +746,7 @@
         <v>6755.1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F39" si="7">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EED4B-F54C-4914-A125-BE0BD4910C95}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1014443-33BE-45D6-8582-8746BCC63891}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -584,7 +584,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1014443-33BE-45D6-8582-8746BCC63891}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64EFD3-06DB-48BB-B4DE-381DDBBA8764}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Пени за 1 день</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,13 +615,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -630,16 +630,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -774,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -903,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -989,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1161,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1204,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1247,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1290,7 +1290,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1333,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1376,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1419,7 +1419,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1462,7 +1462,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1505,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1548,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1591,7 +1591,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1634,7 +1634,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1677,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1720,7 +1720,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1763,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1806,7 +1806,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1892,7 +1892,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1935,7 +1935,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1978,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2021,7 +2021,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2064,7 +2064,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2107,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2150,7 +2150,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64EFD3-06DB-48BB-B4DE-381DDBBA8764}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05EA402-F384-4960-BDD3-D3A10E184C8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Площадь, кв.м.</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Куропаткин 16</t>
+  </si>
+  <si>
+    <t>Анас</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -933,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -87,9 +87,6 @@
     <t>Мирзагитова</t>
   </si>
   <si>
-    <t>Мохамед</t>
-  </si>
-  <si>
     <t>Нуруллина</t>
   </si>
   <si>
@@ -171,7 +168,10 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Анас</t>
+    <t>Мохамед 1</t>
+  </si>
+  <si>
+    <t>Мохамед 2</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,7 +516,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -981,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1026,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1161,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1251,7 +1251,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1341,7 +1341,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1386,7 +1386,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1431,7 +1431,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1521,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1566,7 +1566,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1611,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1656,7 +1656,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1701,7 +1701,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1746,7 +1746,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1791,7 +1791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1836,7 +1836,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1881,7 +1881,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1926,7 +1926,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1971,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2016,7 +2016,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2061,7 +2061,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2106,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2151,7 +2151,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,6 +245,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,9 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
@@ -548,7 +549,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1">
+      <c r="A1" s="7">
         <v>89</v>
       </c>
     </row>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -520,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,7 +530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
@@ -599,7 +601,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>89*1.1</f>
         <v>97.9</v>
       </c>
       <c r="E3" s="1">
@@ -641,11 +643,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$D$3</f>
+        <f t="shared" ref="D4:D38" si="0">89*1.1</f>
         <v>97.9</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6804.05</v>
       </c>
       <c r="F4" s="4">
@@ -657,7 +659,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -665,32 +667,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>6804.05</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A37" si="4">A4+1</f>
+        <f t="shared" ref="A5:A37" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">$D$3</f>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6755.1</v>
       </c>
       <c r="F5" s="4">
@@ -702,7 +704,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -710,32 +712,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6755.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6706.1500000000005</v>
       </c>
       <c r="F6" s="4">
@@ -747,7 +749,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -755,32 +757,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6706.1500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6657.2000000000007</v>
       </c>
       <c r="F7" s="4">
@@ -792,7 +794,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -800,32 +802,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6657.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6608.25</v>
       </c>
       <c r="F8" s="4">
@@ -837,7 +839,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -845,32 +847,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6608.25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6559.3</v>
       </c>
       <c r="F9" s="4">
@@ -882,7 +884,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -890,32 +892,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6559.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6510.35</v>
       </c>
       <c r="F10" s="4">
@@ -927,7 +929,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -935,32 +937,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6510.35</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6461.4000000000005</v>
       </c>
       <c r="F11" s="4">
@@ -972,7 +974,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -980,32 +982,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6461.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6412.4500000000007</v>
       </c>
       <c r="F12" s="4">
@@ -1017,7 +1019,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1025,32 +1027,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6422.4500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6363.5</v>
       </c>
       <c r="F13" s="4">
@@ -1062,7 +1064,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1070,32 +1072,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6383.5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6314.55</v>
       </c>
       <c r="F14" s="4">
@@ -1107,7 +1109,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1115,32 +1117,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6344.55</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6265.6</v>
       </c>
       <c r="F15" s="4">
@@ -1152,7 +1154,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1160,32 +1162,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6305.6</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6216.6500000000005</v>
       </c>
       <c r="F16" s="4">
@@ -1197,7 +1199,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1205,32 +1207,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6266.6500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6167.7000000000007</v>
       </c>
       <c r="F17" s="4">
@@ -1242,7 +1244,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1250,32 +1252,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6227.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6118.75</v>
       </c>
       <c r="F18" s="4">
@@ -1287,7 +1289,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1295,32 +1297,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6188.75</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6069.8</v>
       </c>
       <c r="F19" s="4">
@@ -1332,7 +1334,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1340,32 +1342,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6149.8</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6020.85</v>
       </c>
       <c r="F20" s="4">
@@ -1377,7 +1379,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1385,32 +1387,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6110.85</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5971.9000000000005</v>
       </c>
       <c r="F21" s="4">
@@ -1422,7 +1424,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1430,32 +1432,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6071.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5922.9500000000007</v>
       </c>
       <c r="F22" s="4">
@@ -1467,7 +1469,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1475,32 +1477,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6032.9500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5874</v>
       </c>
       <c r="F23" s="4">
@@ -1512,7 +1514,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1520,32 +1522,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5994</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5825.05</v>
       </c>
       <c r="F24" s="4">
@@ -1557,7 +1559,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1565,32 +1567,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5955.05</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5776.1</v>
       </c>
       <c r="F25" s="4">
@@ -1602,7 +1604,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1610,32 +1612,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5916.1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5727.1500000000005</v>
       </c>
       <c r="F26" s="4">
@@ -1647,7 +1649,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1655,32 +1657,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5877.1500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5678.2000000000007</v>
       </c>
       <c r="F27" s="4">
@@ -1692,7 +1694,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1700,32 +1702,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5838.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5629.25</v>
       </c>
       <c r="F28" s="4">
@@ -1737,7 +1739,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1745,32 +1747,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5799.25</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5580.3</v>
       </c>
       <c r="F29" s="4">
@@ -1782,7 +1784,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1790,32 +1792,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5760.3</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5531.35</v>
       </c>
       <c r="F30" s="4">
@@ -1827,7 +1829,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1835,32 +1837,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5721.35</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5482.4000000000005</v>
       </c>
       <c r="F31" s="4">
@@ -1872,7 +1874,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1880,32 +1882,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5682.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5433.4500000000007</v>
       </c>
       <c r="F32" s="4">
@@ -1917,7 +1919,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1925,32 +1927,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5643.4500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5384.5</v>
       </c>
       <c r="F33" s="4">
@@ -1962,7 +1964,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1970,32 +1972,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5604.5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>97.9</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5335.55</v>
       </c>
       <c r="F34" s="4">
@@ -2007,7 +2009,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2015,32 +2017,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5565.55</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
+        <f>89/2*1.1</f>
         <v>48.95</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2643.3</v>
       </c>
       <c r="F35" s="4">
@@ -2052,7 +2054,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2060,32 +2062,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2883.3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">89/2*1.1</f>
         <v>48.95</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2618.8250000000003</v>
       </c>
       <c r="F36" s="4">
@@ -2097,7 +2099,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2105,24 +2107,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2868.8250000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2130,7 +2132,7 @@
         <v>48.95</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2594.3500000000004</v>
       </c>
       <c r="F37" s="4">
@@ -2142,7 +2144,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2150,11 +2152,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2854.3500000000004</v>
       </c>
     </row>
@@ -2167,7 +2169,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2175,7 +2177,7 @@
         <v>48.95</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2569.875</v>
       </c>
       <c r="F38" s="4">
@@ -2187,7 +2189,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2195,11 +2197,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2839.875</v>
       </c>
     </row>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05EA402-F384-4960-BDD3-D3A10E184C8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -159,9 +153,6 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -175,13 +166,16 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,27 +329,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,24 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -580,34 +538,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.7109375" style="1"/>
+    <col min="1" max="1" width="18.7109375" style="1"/>
+    <col min="2" max="2" width="38.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="18.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -682,7 +632,7 @@
         <v>6853</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -725,7 +675,7 @@
         <v>6804.05</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -768,7 +718,7 @@
         <v>6755.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -811,7 +761,7 @@
         <v>6706.1500000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -854,7 +804,7 @@
         <v>6657.2000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -897,7 +847,7 @@
         <v>6608.25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -940,7 +890,7 @@
         <v>6559.3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -983,7 +933,7 @@
         <v>6510.35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1026,7 +976,7 @@
         <v>6461.4000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1069,7 +1019,7 @@
         <v>6422.4500000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1112,7 +1062,7 @@
         <v>6383.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1155,7 +1105,7 @@
         <v>6344.55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1198,7 +1148,7 @@
         <v>6305.6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1241,7 +1191,7 @@
         <v>6266.6500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1284,7 +1234,7 @@
         <v>6227.7000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1327,7 +1277,7 @@
         <v>6188.75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1370,7 +1320,7 @@
         <v>6149.8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1413,7 +1363,7 @@
         <v>6110.85</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1456,7 +1406,7 @@
         <v>6071.9000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1499,7 +1449,7 @@
         <v>6032.9500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1542,7 +1492,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1585,7 +1535,7 @@
         <v>5955.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1628,7 +1578,7 @@
         <v>5916.1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1671,7 +1621,7 @@
         <v>5877.1500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1714,7 +1664,7 @@
         <v>5838.2000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1757,7 +1707,7 @@
         <v>5799.25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1800,7 +1750,7 @@
         <v>5760.3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1843,7 +1793,7 @@
         <v>5721.35</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1886,7 +1836,7 @@
         <v>5682.4000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1929,7 +1879,7 @@
         <v>5643.4500000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1972,7 +1922,7 @@
         <v>5604.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2015,7 +1965,7 @@
         <v>5565.55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2058,7 +2008,7 @@
         <v>2002.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2101,7 +2051,7 @@
         <v>1995.8833333333332</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2144,7 +2094,7 @@
         <v>1989.5666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2187,39 +2137,39 @@
         <v>1983.25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>205747</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
@@ -2233,24 +2183,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -33,9 +33,6 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -144,15 +141,9 @@
     <t>Кочетков</t>
   </si>
   <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -162,13 +153,22 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма</t>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м</t>
+  </si>
+  <si>
+    <t>Сумма, руб</t>
+  </si>
+  <si>
+    <t>Штраф, руб</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -580,16 +580,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -810,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -853,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -896,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -939,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1068,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1111,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1154,7 +1154,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1240,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1283,7 +1283,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1326,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1412,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1455,7 +1455,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1498,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1541,7 +1541,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1584,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1627,7 +1627,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1670,7 +1670,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1713,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1756,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1799,7 +1799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1842,7 +1842,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1885,7 +1885,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1928,7 +1928,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1971,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2014,7 +2014,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2057,7 +2057,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2100,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="B40" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3:K38)</f>
+        <f>MAX(E3:E38)</f>
         <v>6853</v>
       </c>
     </row>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -144,31 +144,31 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб.</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м</t>
-  </si>
-  <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
-    <t>Штраф, руб</t>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дне</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -586,10 +586,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2142,7 +2142,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="B40" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="B42" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -18,21 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>№ квартиры</t>
-  </si>
-  <si>
-    <t>Фамилия квартиросъёмщика</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -162,13 +147,28 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дне</t>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>№ квартир</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщик</t>
+  </si>
+  <si>
+    <t>Срок оплат</t>
+  </si>
+  <si>
+    <t>Дата оплат</t>
+  </si>
+  <si>
+    <t>Пени за 1 ден</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -559,37 +559,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -810,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -853,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -896,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -939,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1068,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1111,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1154,7 +1154,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1240,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1283,7 +1283,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1326,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1412,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1455,7 +1455,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1498,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1541,7 +1541,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1584,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1627,7 +1627,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1670,7 +1670,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1713,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1756,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1799,7 +1799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1842,7 +1842,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1885,7 +1885,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1928,7 +1928,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1971,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2014,7 +2014,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2057,7 +2057,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2100,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="B40" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="B42" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -156,19 +156,19 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>№ квартир</t>
-  </si>
-  <si>
-    <t>Фамилия квартиросъёмщик</t>
-  </si>
-  <si>
-    <t>Срок оплат</t>
-  </si>
-  <si>
-    <t>Дата оплат</t>
-  </si>
-  <si>
-    <t>Пени за 1 ден</t>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -520,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -601,7 +601,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>89*1.1</f>
+        <f>A1*1.1</f>
         <v>97.9</v>
       </c>
       <c r="E3" s="1">
@@ -643,11 +643,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">89*1.1</f>
+        <f>D3</f>
         <v>97.9</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6804.05</v>
       </c>
       <c r="F4" s="4">
@@ -659,7 +659,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -667,32 +667,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6804.05</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A37" si="5">A4+1</f>
+        <f t="shared" ref="A5:A37" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>97.9</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6755.1</v>
       </c>
       <c r="F5" s="4">
@@ -704,7 +704,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -712,32 +712,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6755.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6706.1500000000005</v>
       </c>
       <c r="F6" s="4">
@@ -749,7 +749,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -757,32 +757,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6706.1500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6657.2000000000007</v>
       </c>
       <c r="F7" s="4">
@@ -794,7 +794,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -802,32 +802,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6657.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6608.25</v>
       </c>
       <c r="F8" s="4">
@@ -839,7 +839,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -847,32 +847,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6608.25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6559.3</v>
       </c>
       <c r="F9" s="4">
@@ -884,7 +884,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -892,32 +892,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6559.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6510.35</v>
       </c>
       <c r="F10" s="4">
@@ -929,7 +929,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -937,32 +937,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6510.35</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6461.4000000000005</v>
       </c>
       <c r="F11" s="4">
@@ -974,7 +974,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -982,32 +982,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6461.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6412.4500000000007</v>
       </c>
       <c r="F12" s="4">
@@ -1019,7 +1019,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1027,32 +1027,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6422.4500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6363.5</v>
       </c>
       <c r="F13" s="4">
@@ -1064,7 +1064,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1072,32 +1072,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6383.5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6314.55</v>
       </c>
       <c r="F14" s="4">
@@ -1109,7 +1109,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1117,32 +1117,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6344.55</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6265.6</v>
       </c>
       <c r="F15" s="4">
@@ -1154,7 +1154,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1162,32 +1162,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6305.6</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6216.6500000000005</v>
       </c>
       <c r="F16" s="4">
@@ -1199,7 +1199,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1207,32 +1207,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6266.6500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6167.7000000000007</v>
       </c>
       <c r="F17" s="4">
@@ -1244,7 +1244,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1252,32 +1252,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6227.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6118.75</v>
       </c>
       <c r="F18" s="4">
@@ -1289,7 +1289,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1297,32 +1297,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6188.75</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6069.8</v>
       </c>
       <c r="F19" s="4">
@@ -1334,7 +1334,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1342,32 +1342,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6149.8</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6020.85</v>
       </c>
       <c r="F20" s="4">
@@ -1379,7 +1379,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1387,32 +1387,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6110.85</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5971.9000000000005</v>
       </c>
       <c r="F21" s="4">
@@ -1424,7 +1424,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1432,32 +1432,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6071.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5922.9500000000007</v>
       </c>
       <c r="F22" s="4">
@@ -1469,7 +1469,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1477,32 +1477,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6032.9500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5874</v>
       </c>
       <c r="F23" s="4">
@@ -1514,7 +1514,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1522,32 +1522,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5994</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5825.05</v>
       </c>
       <c r="F24" s="4">
@@ -1559,7 +1559,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1567,32 +1567,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5955.05</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5776.1</v>
       </c>
       <c r="F25" s="4">
@@ -1604,7 +1604,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1612,32 +1612,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5916.1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5727.1500000000005</v>
       </c>
       <c r="F26" s="4">
@@ -1649,7 +1649,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1657,32 +1657,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5877.1500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5678.2000000000007</v>
       </c>
       <c r="F27" s="4">
@@ -1694,7 +1694,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1702,32 +1702,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5838.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5629.25</v>
       </c>
       <c r="F28" s="4">
@@ -1739,7 +1739,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1747,32 +1747,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5799.25</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5580.3</v>
       </c>
       <c r="F29" s="4">
@@ -1784,7 +1784,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1792,32 +1792,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5760.3</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5531.35</v>
       </c>
       <c r="F30" s="4">
@@ -1829,7 +1829,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1837,32 +1837,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5721.35</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5482.4000000000005</v>
       </c>
       <c r="F31" s="4">
@@ -1874,7 +1874,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1882,32 +1882,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5682.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5433.4500000000007</v>
       </c>
       <c r="F32" s="4">
@@ -1919,7 +1919,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1927,32 +1927,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5643.4500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5384.5</v>
       </c>
       <c r="F33" s="4">
@@ -1964,7 +1964,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1972,32 +1972,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5604.5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.9</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5335.55</v>
       </c>
       <c r="F34" s="4">
@@ -2009,7 +2009,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2017,32 +2017,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5565.55</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>89/2*1.1</f>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2643.3</v>
       </c>
       <c r="F35" s="4">
@@ -2054,7 +2054,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2062,32 +2062,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2883.3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">89/2*1.1</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>48.95</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2618.8250000000003</v>
       </c>
       <c r="F36" s="4">
@@ -2099,7 +2099,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2107,24 +2107,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2868.8250000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2132,7 +2132,7 @@
         <v>48.95</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2594.3500000000004</v>
       </c>
       <c r="F37" s="4">
@@ -2144,7 +2144,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2152,11 +2152,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2854.3500000000004</v>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2177,7 +2177,7 @@
         <v>48.95</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2569.875</v>
       </c>
       <c r="F38" s="4">
@@ -2189,7 +2189,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2197,11 +2197,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2839.875</v>
       </c>
     </row>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -657,6 +657,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="5">
@@ -664,6 +665,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -700,6 +702,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
@@ -707,6 +710,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -743,6 +747,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
@@ -750,6 +755,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -786,6 +792,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
@@ -793,6 +800,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -829,6 +837,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
@@ -836,6 +845,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -872,6 +882,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
@@ -879,6 +890,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -915,6 +927,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
@@ -922,6 +935,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -958,6 +972,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
@@ -965,6 +980,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1001,6 +1017,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
@@ -1008,6 +1025,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1044,6 +1062,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
@@ -1051,6 +1070,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1087,6 +1107,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
@@ -1094,6 +1115,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1130,6 +1152,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
@@ -1137,6 +1160,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1173,6 +1197,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
@@ -1180,6 +1205,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1216,6 +1242,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
@@ -1223,6 +1250,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1259,6 +1287,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
@@ -1266,6 +1295,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1302,6 +1332,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
@@ -1309,6 +1340,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1345,6 +1377,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
@@ -1352,6 +1385,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1388,6 +1422,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
@@ -1395,6 +1430,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1431,6 +1467,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
@@ -1438,6 +1475,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1474,6 +1512,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
@@ -1481,6 +1520,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1517,6 +1557,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
@@ -1524,6 +1565,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1560,6 +1602,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
@@ -1567,6 +1610,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1603,6 +1647,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
@@ -1610,6 +1655,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1646,6 +1692,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
@@ -1653,6 +1700,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1689,6 +1737,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
@@ -1696,6 +1745,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1732,6 +1782,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
@@ -1739,6 +1790,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1775,6 +1827,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
@@ -1782,6 +1835,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1818,6 +1872,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
@@ -1825,6 +1880,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1861,6 +1917,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
@@ -1868,6 +1925,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1904,6 +1962,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
@@ -1911,6 +1970,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1947,6 +2007,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
@@ -1954,6 +2015,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1978,18 +2040,19 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/3</f>
-        <v>32.633333333333333</v>
+        <f>D3/2</f>
+        <v>48.95</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>1762.2</v>
+        <v>2643.3</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
@@ -1997,6 +2060,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2005,7 +2069,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2002.2</v>
+        <v>2883.3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2021,18 +2085,19 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">D4/3</f>
-        <v>32.633333333333333</v>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <v>48.95</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>1745.8833333333332</v>
+        <v>2618.8250000000003</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
@@ -2040,6 +2105,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2048,7 +2114,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>1995.8833333333332</v>
+        <v>2868.8250000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2064,18 +2130,19 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
-        <v>32.633333333333333</v>
+        <f t="shared" si="10"/>
+        <v>48.95</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1729.5666666666666</v>
+        <v>2594.3500000000004</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
@@ -2083,6 +2150,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2091,7 +2159,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>1989.5666666666666</v>
+        <v>2854.3500000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2107,18 +2175,19 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
-        <v>32.633333333333333</v>
+        <f t="shared" si="10"/>
+        <v>48.95</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>1713.25</v>
+        <v>2569.875</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
@@ -2126,6 +2195,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2134,7 +2204,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>1983.25</v>
+        <v>2839.875</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2146,7 +2216,7 @@
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>205747</v>
+        <v>209223</v>
       </c>
     </row>
     <row r="41" spans="1:11">

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -2085,7 +2085,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E36" s="1">
@@ -2130,7 +2130,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E37" s="1">
@@ -2175,7 +2175,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -2215,8 +2215,8 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>209223</v>
+        <f>FLOOR(SUM(K3:K38),1)+1</f>
+        <v>209224</v>
       </c>
     </row>
     <row r="41" spans="1:11">

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -2215,8 +2215,8 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <f>FLOOR(SUM(K3:K38),1)+1</f>
-        <v>209224</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>209223</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2224,8 +2224,8 @@
         <v>45</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C38)</f>
-        <v>61.25</v>
+        <f>AVERAGE(C3:C38)+1</f>
+        <v>62.25</v>
       </c>
     </row>
     <row r="42" spans="1:11">

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -2224,8 +2224,8 @@
         <v>45</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C38)+1</f>
-        <v>62.25</v>
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2233,8 +2233,8 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H3:H38)</f>
-        <v>27</v>
+        <f>MAX(H3:H38)+1</f>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:11">

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -2233,8 +2233,8 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H3:H38)+1</f>
-        <v>28</v>
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2242,8 +2242,8 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(E3:E38)</f>
-        <v>6853</v>
+        <f>MAX(E3:E38)+1</f>
+        <v>6854</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -520,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -2083,7 +2083,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E36" s="1">
@@ -2128,7 +2128,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E37" s="1">
@@ -2173,7 +2173,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>48.95</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_89.xlsx
+++ b/LR3/table_1_89.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15.75"/>
@@ -2242,8 +2242,8 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(E3:E38)+1</f>
-        <v>6854</v>
+        <f>MAX(K3:K38)</f>
+        <v>6853</v>
       </c>
     </row>
   </sheetData>
